--- a/PS4/att_s.xlsx
+++ b/PS4/att_s.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -133,14 +133,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,17 +423,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="9.85546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="8" max="9" width="9.85546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1">
       <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
@@ -447,7 +447,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2">
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
@@ -477,7 +477,7 @@
         <v>CI high</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +506,7 @@
         <v>-13916.348103368426</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -535,7 +535,7 @@
         <v>8673.6940747930566</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -564,7 +564,7 @@
         <v>6713.2853311371355</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,7 +593,7 @@
         <v>6306.6544608227696</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -622,7 +622,7 @@
         <v>10960.432177275257</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -651,7 +651,7 @@
         <v>7066.5244145534807</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -680,7 +680,7 @@
         <v>7663.2306246486442</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -709,7 +709,7 @@
         <v>4461.1548055505718</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -738,7 +738,7 @@
         <v>4037.2704518084247</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -767,7 +767,7 @@
         <v>4320.103217194619</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -796,7 +796,7 @@
         <v>3353.7260025788778</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -825,7 +825,7 @@
         <v>3640.1237934219675</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -854,7 +854,7 @@
         <v>3897.5564908722695</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -883,7 +883,7 @@
         <v>4075.6952803472223</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -912,7 +912,7 @@
         <v>4015.7122661074795</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -941,7 +941,7 @@
         <v>3836.4003644674131</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -970,7 +970,7 @@
         <v>4237.3159900552218</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3583.8916468744783</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
